--- a/CR - Cost Report/CBOM/Ressources Monoh/FAO/Machining volume and time.xlsx
+++ b/CR - Cost Report/CBOM/Ressources Monoh/FAO/Machining volume and time.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832DBEB1-EF06-4E85-B56F-BC2C61CD96A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9FB8DB-7E95-4200-AE0D-5AF98CAA0B45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10560" yWindow="315" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Step</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Turning/milling</t>
   </si>
 </sst>
 </file>
@@ -391,11 +394,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -442,15 +446,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <f>4.654*10^5</f>
         <v>465400</v>
       </c>
       <c r="D4">
-        <f>59+(39+15)/60</f>
-        <v>59.9</v>
+        <f>5+6+(39+55+17+23)/60</f>
+        <v>13.233333333333334</v>
       </c>
       <c r="E4" s="1">
         <f>C3-C4</f>
@@ -458,7 +462,11 @@
       </c>
       <c r="F4" s="1">
         <f>E4/D4</f>
-        <v>12096.828046744575</v>
+        <v>54755.667506297228</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/F4</f>
+        <v>1.8262949673383016E-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -473,8 +481,8 @@
         <v>323700</v>
       </c>
       <c r="D5">
-        <f>2+(41+15)/60</f>
-        <v>2.9333333333333336</v>
+        <f>6+(18)/60</f>
+        <v>6.3</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E6" si="0">C4-C5</f>
@@ -482,7 +490,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F6" si="1">E5/D5</f>
-        <v>48306.818181818177</v>
+        <v>22492.063492063491</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G7" si="2">1/F5</f>
+        <v>4.4460127028934373E-5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -497,8 +509,8 @@
         <v>152100</v>
       </c>
       <c r="D6">
-        <f>13+(13+45)/60</f>
-        <v>13.966666666666667</v>
+        <f>18+(15)/60</f>
+        <v>18.25</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
@@ -506,11 +518,11 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>12286.396181384249</v>
+        <v>9402.7397260273974</v>
       </c>
       <c r="G6" s="1">
-        <f>F6*0.85</f>
-        <v>10443.436754176611</v>
+        <f t="shared" si="2"/>
+        <v>1.0635198135198135E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -519,15 +531,19 @@
       </c>
       <c r="D7">
         <f>SUM(D4:D6)</f>
-        <v>76.8</v>
+        <v>37.783333333333331</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:F7" si="2">SUM(E4:E6)</f>
+        <f t="shared" ref="E7" si="3">SUM(E4:E6)</f>
         <v>1037900</v>
       </c>
       <c r="F7" s="1">
         <f>E7/D7</f>
-        <v>13514.322916666668</v>
+        <v>27469.783855315396</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.640363554613482E-5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
